--- a/src/predicciones/holt_winters/producto_46.xlsx
+++ b/src/predicciones/holt_winters/producto_46.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>predicciones</t>
   </si>
   <si>
     <t>real</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -384,6 +393,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -392,935 +404,935 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>0</v>
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
-        <v>1.993618315070395</v>
+        <v>1.648083288624187</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>1</v>
+      <c r="A3" s="2">
+        <v>44943</v>
       </c>
       <c r="B3">
-        <v>1.004105291068545</v>
+        <v>1.273873677875931</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>2</v>
+      <c r="A4" s="2">
+        <v>44945</v>
       </c>
       <c r="B4">
-        <v>1.010194929692146</v>
+        <v>1.09494622588483</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>3</v>
+      <c r="A5" s="2">
+        <v>44946</v>
       </c>
       <c r="B5">
-        <v>1.011186811733152</v>
+        <v>1.183073511254401</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>4</v>
+      <c r="A6" s="2">
+        <v>44948</v>
       </c>
       <c r="B6">
-        <v>1.013536287816492</v>
+        <v>1.553911505130189</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>5</v>
+      <c r="A7" s="2">
+        <v>44950</v>
       </c>
       <c r="B7">
-        <v>2.101530615812448</v>
+        <v>1.463385394326307</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>6</v>
+      <c r="A8" s="2">
+        <v>44952</v>
       </c>
       <c r="B8">
-        <v>0.9821038363143907</v>
+        <v>1.420806467461999</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="1">
-        <v>7</v>
+      <c r="A9" s="2">
+        <v>44954</v>
       </c>
       <c r="B9">
-        <v>1.997490229912668</v>
+        <v>1.645834304683385</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>8</v>
+      <c r="A10" s="2">
+        <v>44964</v>
       </c>
       <c r="B10">
-        <v>1.007977205910819</v>
+        <v>1.271624693935129</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>9</v>
+      <c r="A11" s="2">
+        <v>44966</v>
       </c>
       <c r="B11">
-        <v>1.014066844534419</v>
+        <v>1.092697241944028</v>
       </c>
       <c r="C11">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>10</v>
+      <c r="A12" s="2">
+        <v>44967</v>
       </c>
       <c r="B12">
-        <v>1.015058726575426</v>
+        <v>1.180824527313599</v>
       </c>
       <c r="C12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="1">
-        <v>11</v>
+      <c r="A13" s="2">
+        <v>44974</v>
       </c>
       <c r="B13">
-        <v>1.017408202658765</v>
+        <v>1.551662521189386</v>
       </c>
       <c r="C13">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="1">
-        <v>12</v>
+      <c r="A14" s="2">
+        <v>44978</v>
       </c>
       <c r="B14">
-        <v>2.105402530654721</v>
+        <v>1.461136410385504</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="1">
-        <v>13</v>
+      <c r="A15" s="2">
+        <v>44981</v>
       </c>
       <c r="B15">
-        <v>0.9859757511566642</v>
+        <v>1.418557483521197</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
-      <c r="A16" s="1">
-        <v>14</v>
+      <c r="A16" s="2">
+        <v>44988</v>
       </c>
       <c r="B16">
-        <v>2.001362144754942</v>
+        <v>1.643585320742583</v>
       </c>
       <c r="C16">
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="1">
-        <v>15</v>
+      <c r="A17" s="2">
+        <v>44995</v>
       </c>
       <c r="B17">
-        <v>1.011849120753092</v>
+        <v>1.269375709994326</v>
       </c>
       <c r="C17">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3">
-      <c r="A18" s="1">
-        <v>16</v>
+      <c r="A18" s="2">
+        <v>44996</v>
       </c>
       <c r="B18">
-        <v>1.017938759376693</v>
+        <v>1.090448258003225</v>
       </c>
       <c r="C18">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="1">
-        <v>17</v>
+      <c r="A19" s="2">
+        <v>44998</v>
       </c>
       <c r="B19">
-        <v>1.018930641417699</v>
+        <v>1.178575543372796</v>
       </c>
       <c r="C19">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="1">
-        <v>18</v>
+      <c r="A20" s="2">
+        <v>45001</v>
       </c>
       <c r="B20">
-        <v>1.021280117501039</v>
+        <v>1.549413537248584</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:3">
-      <c r="A21" s="1">
-        <v>19</v>
+      <c r="A21" s="2">
+        <v>45003</v>
       </c>
       <c r="B21">
-        <v>2.109274445496995</v>
+        <v>1.458887426444702</v>
       </c>
       <c r="C21">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:3">
-      <c r="A22" s="1">
-        <v>20</v>
+      <c r="A22" s="2">
+        <v>45010</v>
       </c>
       <c r="B22">
-        <v>0.9898476659989378</v>
+        <v>1.416308499580394</v>
       </c>
       <c r="C22">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="1">
-        <v>21</v>
+      <c r="A23" s="2">
+        <v>45012</v>
       </c>
       <c r="B23">
-        <v>2.005234059597215</v>
+        <v>1.64133633680178</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:3">
-      <c r="A24" s="1">
-        <v>22</v>
+      <c r="A24" s="2">
+        <v>45014</v>
       </c>
       <c r="B24">
-        <v>1.015721035595366</v>
+        <v>1.267126726053524</v>
       </c>
       <c r="C24">
         <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="1">
-        <v>23</v>
+      <c r="A25" s="2">
+        <v>45016</v>
       </c>
       <c r="B25">
-        <v>1.021810674218966</v>
+        <v>1.088199274062423</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="1">
-        <v>24</v>
+      <c r="A26" s="2">
+        <v>45025</v>
       </c>
       <c r="B26">
-        <v>1.022802556259973</v>
+        <v>1.176326559431994</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="1">
-        <v>25</v>
+      <c r="A27" s="2">
+        <v>45029</v>
       </c>
       <c r="B27">
-        <v>1.025152032343312</v>
+        <v>1.547164553307782</v>
       </c>
       <c r="C27">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="1">
-        <v>26</v>
+      <c r="A28" s="2">
+        <v>45036</v>
       </c>
       <c r="B28">
-        <v>2.113146360339269</v>
+        <v>1.456638442503899</v>
       </c>
       <c r="C28">
         <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="1">
-        <v>27</v>
+      <c r="A29" s="2">
+        <v>45038</v>
       </c>
       <c r="B29">
-        <v>0.9937195808412114</v>
+        <v>1.414059515639592</v>
       </c>
       <c r="C29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="1">
-        <v>28</v>
+      <c r="A30" s="2">
+        <v>45041</v>
       </c>
       <c r="B30">
-        <v>2.009105974439489</v>
+        <v>1.639087352860978</v>
       </c>
       <c r="C30">
         <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:3">
-      <c r="A31" s="1">
-        <v>29</v>
+      <c r="A31" s="2">
+        <v>45053</v>
       </c>
       <c r="B31">
-        <v>1.01959295043764</v>
+        <v>1.264877742112722</v>
       </c>
       <c r="C31">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="1">
-        <v>30</v>
+      <c r="A32" s="2">
+        <v>45054</v>
       </c>
       <c r="B32">
-        <v>1.02568258906124</v>
+        <v>1.08595029012162</v>
       </c>
       <c r="C32">
         <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="1">
-        <v>31</v>
+      <c r="A33" s="2">
+        <v>45057</v>
       </c>
       <c r="B33">
-        <v>1.026674471102246</v>
+        <v>1.174077575491192</v>
       </c>
       <c r="C33">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="1">
-        <v>32</v>
+      <c r="A34" s="2">
+        <v>45060</v>
       </c>
       <c r="B34">
-        <v>1.029023947185586</v>
+        <v>1.544915569366979</v>
       </c>
       <c r="C34">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="1">
-        <v>33</v>
+      <c r="A35" s="2">
+        <v>45062</v>
       </c>
       <c r="B35">
-        <v>2.117018275181542</v>
+        <v>1.454389458563097</v>
       </c>
       <c r="C35">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="1">
-        <v>34</v>
+      <c r="A36" s="2">
+        <v>45070</v>
       </c>
       <c r="B36">
-        <v>0.997591495683485</v>
+        <v>1.411810531698789</v>
       </c>
       <c r="C36">
         <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="1">
-        <v>35</v>
+      <c r="A37" s="2">
+        <v>45075</v>
       </c>
       <c r="B37">
-        <v>2.012977889281763</v>
+        <v>1.636838368920175</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:3">
-      <c r="A38" s="1">
-        <v>36</v>
+      <c r="A38" s="2">
+        <v>45090</v>
       </c>
       <c r="B38">
-        <v>1.023464865279913</v>
+        <v>1.262628758171919</v>
       </c>
       <c r="C38">
         <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:3">
-      <c r="A39" s="1">
-        <v>37</v>
+      <c r="A39" s="2">
+        <v>45094</v>
       </c>
       <c r="B39">
-        <v>1.029554503903513</v>
+        <v>1.083701306180818</v>
       </c>
       <c r="C39">
         <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="1">
-        <v>38</v>
+      <c r="A40" s="2">
+        <v>45099</v>
       </c>
       <c r="B40">
-        <v>1.03054638594452</v>
+        <v>1.171828591550389</v>
       </c>
       <c r="C40">
         <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="1">
-        <v>39</v>
+      <c r="A41" s="2">
+        <v>45104</v>
       </c>
       <c r="B41">
-        <v>1.032895862027859</v>
+        <v>1.542666585426177</v>
       </c>
       <c r="C41">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:3">
-      <c r="A42" s="1">
-        <v>40</v>
+      <c r="A42" s="2">
+        <v>45107</v>
       </c>
       <c r="B42">
-        <v>2.120890190023816</v>
+        <v>1.452140474622295</v>
       </c>
       <c r="C42">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="1">
-        <v>41</v>
+      <c r="A43" s="2">
+        <v>45113</v>
       </c>
       <c r="B43">
-        <v>1.001463410525758</v>
+        <v>1.409561547757987</v>
       </c>
       <c r="C43">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:3">
-      <c r="A44" s="1">
-        <v>42</v>
+      <c r="A44" s="2">
+        <v>45119</v>
       </c>
       <c r="B44">
-        <v>2.016849804124036</v>
+        <v>1.634589384979373</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:3">
-      <c r="A45" s="1">
-        <v>43</v>
+      <c r="A45" s="2">
+        <v>45145</v>
       </c>
       <c r="B45">
-        <v>1.027336780122187</v>
+        <v>1.260379774231117</v>
       </c>
       <c r="C45">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:3">
-      <c r="A46" s="1">
-        <v>44</v>
+      <c r="A46" s="2">
+        <v>45147</v>
       </c>
       <c r="B46">
-        <v>1.033426418745787</v>
+        <v>1.081452322240016</v>
       </c>
       <c r="C46">
         <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:3">
-      <c r="A47" s="1">
-        <v>45</v>
+      <c r="A47" s="2">
+        <v>45159</v>
       </c>
       <c r="B47">
-        <v>1.034418300786794</v>
+        <v>1.169579607609587</v>
       </c>
       <c r="C47">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:3">
-      <c r="A48" s="1">
-        <v>46</v>
+      <c r="A48" s="2">
+        <v>45162</v>
       </c>
       <c r="B48">
-        <v>1.036767776870133</v>
+        <v>1.540417601485374</v>
       </c>
       <c r="C48">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:3">
-      <c r="A49" s="1">
-        <v>47</v>
+      <c r="A49" s="2">
+        <v>45170</v>
       </c>
       <c r="B49">
-        <v>2.124762104866089</v>
+        <v>1.449891490681492</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="1">
-        <v>48</v>
+      <c r="A50" s="2">
+        <v>45176</v>
       </c>
       <c r="B50">
-        <v>1.005335325368032</v>
+        <v>1.407312563817185</v>
       </c>
       <c r="C50">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:3">
-      <c r="A51" s="1">
-        <v>49</v>
+      <c r="A51" s="2">
+        <v>45185</v>
       </c>
       <c r="B51">
-        <v>2.02072171896631</v>
+        <v>1.63234040103857</v>
       </c>
       <c r="C51">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:3">
-      <c r="A52" s="1">
-        <v>50</v>
+      <c r="A52" s="2">
+        <v>45197</v>
       </c>
       <c r="B52">
-        <v>1.03120869496446</v>
+        <v>1.258130790290314</v>
       </c>
       <c r="C52">
         <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:3">
-      <c r="A53" s="1">
-        <v>51</v>
+      <c r="A53" s="2">
+        <v>45202</v>
       </c>
       <c r="B53">
-        <v>1.037298333588061</v>
+        <v>1.079203338299213</v>
       </c>
       <c r="C53">
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:3">
-      <c r="A54" s="1">
-        <v>52</v>
+      <c r="A54" s="2">
+        <v>45204</v>
       </c>
       <c r="B54">
-        <v>1.038290215629067</v>
+        <v>1.167330623668784</v>
       </c>
       <c r="C54">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:3">
-      <c r="A55" s="1">
-        <v>53</v>
+      <c r="A55" s="2">
+        <v>45205</v>
       </c>
       <c r="B55">
-        <v>1.040639691712406</v>
+        <v>1.538168617544572</v>
       </c>
       <c r="C55">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3">
-      <c r="A56" s="1">
-        <v>54</v>
+      <c r="A56" s="2">
+        <v>45206</v>
       </c>
       <c r="B56">
-        <v>2.128634019708363</v>
+        <v>1.44764250674069</v>
       </c>
       <c r="C56">
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:3">
-      <c r="A57" s="1">
-        <v>55</v>
+      <c r="A57" s="2">
+        <v>45219</v>
       </c>
       <c r="B57">
-        <v>1.009207240210306</v>
+        <v>1.405063579876382</v>
       </c>
       <c r="C57">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3">
-      <c r="A58" s="1">
-        <v>56</v>
+      <c r="A58" s="2">
+        <v>45220</v>
       </c>
       <c r="B58">
-        <v>2.024593633808583</v>
+        <v>1.630091417097768</v>
       </c>
       <c r="C58">
         <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:3">
-      <c r="A59" s="1">
-        <v>57</v>
+      <c r="A59" s="2">
+        <v>45221</v>
       </c>
       <c r="B59">
-        <v>1.035080609806734</v>
+        <v>1.255881806349512</v>
       </c>
       <c r="C59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:3">
-      <c r="A60" s="1">
-        <v>58</v>
+      <c r="A60" s="2">
+        <v>45222</v>
       </c>
       <c r="B60">
-        <v>1.041170248430334</v>
+        <v>1.076954354358411</v>
       </c>
       <c r="C60">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3">
-      <c r="A61" s="1">
-        <v>59</v>
+      <c r="A61" s="2">
+        <v>45238</v>
       </c>
       <c r="B61">
-        <v>1.042162130471341</v>
+        <v>1.165081639727982</v>
       </c>
       <c r="C61">
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:3">
-      <c r="A62" s="1">
-        <v>60</v>
+      <c r="A62" s="2">
+        <v>45247</v>
       </c>
       <c r="B62">
-        <v>1.04451160655468</v>
+        <v>1.535919633603769</v>
       </c>
       <c r="C62">
         <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:3">
-      <c r="A63" s="1">
-        <v>61</v>
+      <c r="A63" s="2">
+        <v>45251</v>
       </c>
       <c r="B63">
-        <v>2.132505934550637</v>
+        <v>1.445393522799887</v>
       </c>
       <c r="C63">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:3">
-      <c r="A64" s="1">
-        <v>62</v>
+      <c r="A64" s="2">
+        <v>45259</v>
       </c>
       <c r="B64">
-        <v>1.013079155052579</v>
+        <v>1.40281459593558</v>
       </c>
       <c r="C64">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="1">
-        <v>63</v>
+      <c r="A65" s="2">
+        <v>45262</v>
       </c>
       <c r="B65">
-        <v>2.028465548650857</v>
+        <v>1.627842433156966</v>
       </c>
       <c r="C65">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:3">
-      <c r="A66" s="1">
-        <v>64</v>
+      <c r="A66" s="2">
+        <v>45265</v>
       </c>
       <c r="B66">
-        <v>1.038952524649007</v>
+        <v>1.253632822408709</v>
       </c>
       <c r="C66">
         <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3">
-      <c r="A67" s="1">
-        <v>65</v>
+      <c r="A67" s="2">
+        <v>45267</v>
       </c>
       <c r="B67">
-        <v>1.045042163272608</v>
+        <v>1.074705370417608</v>
       </c>
       <c r="C67">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:3">
-      <c r="A68" s="1">
-        <v>66</v>
+      <c r="A68" s="2">
+        <v>45274</v>
       </c>
       <c r="B68">
-        <v>1.046034045313614</v>
+        <v>1.16283265578718</v>
       </c>
       <c r="C68">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:3">
-      <c r="A69" s="1">
-        <v>67</v>
+      <c r="A69" s="2">
+        <v>45280</v>
       </c>
       <c r="B69">
-        <v>1.048383521396953</v>
+        <v>1.533670649662967</v>
       </c>
       <c r="C69">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:3">
-      <c r="A70" s="1">
-        <v>68</v>
+      <c r="A70" s="2">
+        <v>45283</v>
       </c>
       <c r="B70">
-        <v>2.13637784939291</v>
+        <v>1.443144538859085</v>
       </c>
       <c r="C70">
         <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:3">
-      <c r="A71" s="1">
-        <v>69</v>
+      <c r="A71" s="2">
+        <v>45286</v>
       </c>
       <c r="B71">
-        <v>1.016951069894853</v>
+        <v>1.400565611994777</v>
       </c>
       <c r="C71">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:3">
-      <c r="A72" s="1">
-        <v>70</v>
+      <c r="A72" s="2">
+        <v>45291</v>
       </c>
       <c r="B72">
-        <v>2.03233746349313</v>
+        <v>1.625593449216163</v>
       </c>
       <c r="C72">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3">
-      <c r="A73" s="1">
-        <v>71</v>
+      <c r="A73" s="2">
+        <v>45307</v>
       </c>
       <c r="B73">
-        <v>1.042824439491281</v>
+        <v>1.251383838467907</v>
       </c>
       <c r="C73">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:3">
-      <c r="A74" s="1">
-        <v>72</v>
+      <c r="A74" s="2">
+        <v>45312</v>
       </c>
       <c r="B74">
-        <v>1.048914078114881</v>
+        <v>1.072456386476806</v>
       </c>
       <c r="C74">
         <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3">
-      <c r="A75" s="1">
-        <v>73</v>
+      <c r="A75" s="2">
+        <v>45318</v>
       </c>
       <c r="B75">
-        <v>1.049905960155888</v>
+        <v>1.160583671846377</v>
       </c>
       <c r="C75">
         <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:3">
-      <c r="A76" s="1">
-        <v>74</v>
+      <c r="A76" s="2">
+        <v>45320</v>
       </c>
       <c r="B76">
-        <v>1.052255436239227</v>
+        <v>1.531421665722165</v>
       </c>
       <c r="C76">
         <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:3">
-      <c r="A77" s="1">
-        <v>75</v>
+      <c r="A77" s="2">
+        <v>45323</v>
       </c>
       <c r="B77">
-        <v>2.140249764235183</v>
+        <v>1.440895554918282</v>
       </c>
       <c r="C77">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="1">
-        <v>76</v>
+      <c r="A78" s="2">
+        <v>45324</v>
       </c>
       <c r="B78">
-        <v>1.020822984737126</v>
+        <v>1.398316628053975</v>
       </c>
       <c r="C78">
         <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="1">
-        <v>77</v>
+      <c r="A79" s="2">
+        <v>45328</v>
       </c>
       <c r="B79">
-        <v>2.036209378335404</v>
+        <v>1.623344465275361</v>
       </c>
       <c r="C79">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:3">
-      <c r="A80" s="1">
-        <v>78</v>
+      <c r="A80" s="2">
+        <v>45330</v>
       </c>
       <c r="B80">
-        <v>1.046696354333555</v>
+        <v>1.249134854527105</v>
       </c>
       <c r="C80">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:3">
-      <c r="A81" s="1">
-        <v>79</v>
+      <c r="A81" s="2">
+        <v>45331</v>
       </c>
       <c r="B81">
-        <v>1.052785992957155</v>
+        <v>1.070207402536004</v>
       </c>
       <c r="C81">
         <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="1">
-        <v>80</v>
+      <c r="A82" s="2">
+        <v>45333</v>
       </c>
       <c r="B82">
-        <v>1.053777874998161</v>
+        <v>1.158334687905575</v>
       </c>
       <c r="C82">
         <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:3">
-      <c r="A83" s="1">
-        <v>81</v>
+      <c r="A83" s="2">
+        <v>45334</v>
       </c>
       <c r="B83">
-        <v>1.056127351081501</v>
+        <v>1.529172681781362</v>
       </c>
       <c r="C83">
         <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:3">
-      <c r="A84" s="1">
-        <v>82</v>
+      <c r="A84" s="2">
+        <v>45337</v>
       </c>
       <c r="B84">
-        <v>2.144121679077457</v>
+        <v>1.43864657097748</v>
       </c>
       <c r="C84">
         <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="1">
-        <v>83</v>
+      <c r="A85" s="2">
+        <v>45338</v>
       </c>
       <c r="B85">
-        <v>1.0246948995794</v>
+        <v>1.396067644113173</v>
       </c>
       <c r="C85">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="1">
-        <v>84</v>
+      <c r="A86" s="2">
+        <v>45341</v>
       </c>
       <c r="B86">
-        <v>2.040081293177678</v>
+        <v>1.621095481334558</v>
       </c>
       <c r="C86">
         <v>1</v>
